--- a/Namrata Rubber Product.xlsx
+++ b/Namrata Rubber Product.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder\2022-2023\Namrata Rubber Product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JP TECHATRONICS 2022-2023\2023-2024\Namrata Rubber Product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD14876B-B851-47B9-9BAE-B6362FC39804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Sr. No</t>
   </si>
@@ -69,13 +69,67 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 500 x long 500 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 605 x long 600 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 278 x long 500 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 330 x long 200 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 173 x long 200 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 174 x long 500 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 500 x long 240 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 205 x long 400 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Res  Pipe id 224 x long 500 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 310 x long 400 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red Pipe id 170 x long 300 x 3mm</t>
+  </si>
+  <si>
+    <t>Price to be considered</t>
+  </si>
+  <si>
+    <t>per pcs</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>HSN Code</t>
+  </si>
+  <si>
+    <t>              Description of Goods </t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +152,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -146,6 +236,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,24 +535,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="16.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="16.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -476,7 +584,7 @@
         <v>53543</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -492,7 +600,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -508,7 +616,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -522,7 +630,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -536,7 +644,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -552,7 +660,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -566,7 +674,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -582,7 +690,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -598,7 +706,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -610,9 +718,369 @@
         <v>72549</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1225</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
+        <f>3.14*17*30</f>
+        <v>1601.4</v>
+      </c>
+      <c r="I2" s="5">
+        <f>F2/H2</f>
+        <v>0.76495566379418001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2270</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <f>3.14*31*40</f>
+        <v>3893.6000000000004</v>
+      </c>
+      <c r="I3" s="5">
+        <f>F3/H3</f>
+        <v>0.58300801314978423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2245</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <f>3.14*22.4*50</f>
+        <v>3516.7999999999997</v>
+      </c>
+      <c r="I4" s="5">
+        <f>F4/H4</f>
+        <v>0.63836442220200185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1725</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <f>3.14*20.5*40</f>
+        <v>2574.8000000000002</v>
+      </c>
+      <c r="I5" s="5">
+        <f>F5/H5</f>
+        <v>0.66995494795712285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3100</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <f>3.14*50*24</f>
+        <v>3768</v>
+      </c>
+      <c r="I6" s="5">
+        <f>F6/H6</f>
+        <v>0.82271762208067944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1880</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
+        <f>3.14*17.4*50</f>
+        <v>2731.7999999999997</v>
+      </c>
+      <c r="I7" s="5">
+        <f>F7/H7</f>
+        <v>0.68819093637894435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1050</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <f>3.14*17.3*20</f>
+        <v>1086.44</v>
+      </c>
+      <c r="I8" s="5">
+        <f>F8/H8</f>
+        <v>0.96645926144103678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1450</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <f>3.14*33*20</f>
+        <v>2072.4</v>
+      </c>
+      <c r="I9" s="5">
+        <f>F9/H9</f>
+        <v>0.69967187801582698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2800</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <f>3.14*27.8*50</f>
+        <v>4364.6000000000004</v>
+      </c>
+      <c r="I10" s="5">
+        <f>F10/H10</f>
+        <v>0.6415249965632589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <f>3.14*60.5*60</f>
+        <v>11398.2</v>
+      </c>
+      <c r="I11" s="5">
+        <f>F11/H11</f>
+        <v>0.52639890509027742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7">
+        <v>40091100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6500</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
+        <f>3.14*50*50</f>
+        <v>7850</v>
+      </c>
+      <c r="I12" s="5">
+        <f>F12/H12</f>
+        <v>0.82802547770700641</v>
       </c>
     </row>
   </sheetData>
